--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1367"/>
+  <dimension ref="A1:J1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43985,15 +43985,47 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-      <c r="J1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>0.8510000000000062</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>-0.08399999999999608</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>-0.1013333333333311</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0.3106666666666644</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.5666666666666664</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>-0.08399999999999963</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>-0.3826666666666689</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>0.1537619047619059</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+      <c r="J1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1368"/>
+  <dimension ref="A1:J1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44017,15 +44017,47 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-      <c r="J1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>1.507666666666665</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2.671999999999999</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1.520666666666665</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>1.773333333333335</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1.989333333333333</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>1.347333333333333</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1.834619047619047</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+      <c r="J1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1369"/>
+  <dimension ref="A1:J1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44049,15 +44049,47 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-      <c r="J1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>1.544333333333334</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>0.9053333333333278</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1.222000000000001</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1.332999999999998</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>2.243333333333334</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>1.016000000000002</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>0.8873333333333324</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>1.307333333333333</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+      <c r="J1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1370"/>
+  <dimension ref="A1:J1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,15 +44081,47 @@
       <c r="A1370" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-      <c r="J1370" t="inlineStr"/>
+      <c r="B1370" t="n">
+        <v>0.6439999999999912</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>0.02266666666666239</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0.6266666666666687</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1.510333333333335</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>3.463333333333335</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>0.9153333333333364</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>1.572999999999999</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>1.250761904761904</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+      <c r="J1371" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,15 +44113,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>-0.06933333333332925</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>0.2793333333333301</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0.7800000000000011</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1.320333333333334</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1.738666666666663</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2.522999999999998</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>1.227904761904762</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,15 +44145,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>-0.6926666666666712</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>-0.4339999999999993</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0.08999999999999808</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>0.2703333333333369</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.1199999999999957</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>0.2099999999999973</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0.9263333333333339</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.06999999999999876</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44177,15 +44177,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>1.307333333333336</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0.6600000000000019</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>1.013333333333334</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>1.246666666666663</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>1.087619047619048</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,15 +44209,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>1.460666666666667</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>2.479333333333333</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1.856666666666669</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>2.040333333333336</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>1.950000000000001</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>2.236666666666663</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2.076333333333331</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>2.014285714285714</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0.3339999999999996</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1.296000000000001</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1.126666666666665</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1.620666666666665</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>1.333333333333332</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>2.076666666666667</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>1.746333333333333</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>1.361952380952381</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,7 +44254,7 @@
         <v>1.620666666666665</v>
       </c>
       <c r="F1375" t="n">
-        <v>1.333333333333332</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="G1375" t="n">
         <v>2.076666666666667</v>
@@ -44263,25 +44263,57 @@
         <v>1.746333333333333</v>
       </c>
       <c r="I1375" t="n">
-        <v>1.361952380952381</v>
+        <v>1.347666666666666</v>
       </c>
       <c r="J1375" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>1.047333333333333</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>0.7760000000000034</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>0.4033333333333324</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1.450666666666667</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>1.040000000000002</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1.103333333333334</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>1.802999999999999</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>1.089095238095239</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,15 +44305,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>-0.8389999999999986</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>-0.8006666666666691</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>-0.8833333333333311</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>-0.7260000000000009</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>-0.7266666666666675</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>0.3063333333333329</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>-0.5541904761904763</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44337,15 +44337,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>1.054333333333327</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1.772666666666666</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1.028666666666668</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1.237333333333332</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1.576666666666666</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>1.373999999999999</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>1.280523809523808</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44369,15 +44369,47 @@
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>0.7343333333333302</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>0.3026666666666653</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>0.1853333333333307</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.2906666666666702</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0.9506666666666685</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.3805238095238097</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44401,15 +44401,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>0.4943333333333335</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.8119999999999958</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0.3186666666666618</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.4473333333333329</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.6233333333333295</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0.2166666666666686</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>-0.006000000000000227</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.4151904761904746</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,15 +44433,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>1.087666666666667</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1.611999999999998</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>0.4286666666666683</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1.513000000000005</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.8566666666666656</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1.236666666666666</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.7973333333333308</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,15 +44465,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>1.607333333333337</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1.632666666666669</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1.536666666666672</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1.270333333333337</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.7500000000000018</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1.443333333333332</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.8729999999999976</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>1.301904761904764</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,15 +44497,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>0.01066666666666904</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>0.03266666666666396</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>-0.1196666666666673</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>-1.236666666666672</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>-0.1966666666666654</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.6130000000000013</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>-0.1123809523809529</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,15 +44529,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>-1.09266666666667</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>-0.9339999999999993</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>-0.7100000000000026</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>-0.7296666666666631</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>-1.280000000000005</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>-1.290000000000003</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>-0.8736666666666668</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>-0.9871428571428584</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,16 +43841,16 @@
         <v>1.850000000000001</v>
       </c>
       <c r="G1362" t="n">
-        <v>1.336666666666662</v>
+        <v>1.236666666666663</v>
       </c>
       <c r="H1362" t="n">
         <v>1.876333333333331</v>
       </c>
       <c r="I1362" t="n">
-        <v>1.442857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="J1362" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="1363">
@@ -44561,15 +44561,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>0.4073333333333373</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>0.3659999999999997</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0.3600000000000012</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.6070000000000011</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.2133333333333347</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>0.7466666666666626</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.4129999999999985</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.444761904761905</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44593,15 +44593,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>-1.139333333333333</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>-1.320666666666668</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>-1.443333333333332</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>-1.259666666666662</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>-0.8499999999999996</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>-2.263333333333337</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>-0.8236666666666679</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,15 +44625,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>0.8960000000000008</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0.8266666666666644</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>1.220666666666665</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>1.233333333333333</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>0.8766666666666669</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>1.546333333333334</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>1.133380952380952</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44657,15 +44657,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>0.4473333333333329</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>0.7760000000000034</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0.7033333333333331</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>1.050666666666666</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1.140000000000001</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>0.8033333333333346</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>1.702999999999999</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>0.9462380952380959</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44689,15 +44688,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>0.6610000000000014</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>1.099333333333332</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>0.8166666666666682</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>0.5739999999999998</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.8733333333333331</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>0.8899999999999997</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>1.006333333333334</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.845809523809524</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44720,15 +44720,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>0.8543333333333276</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.5726666666666649</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0.6286666666666676</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>0.4373333333333314</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>0.9766666666666648</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>1.073999999999998</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.6519523809523792</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44752,15 +44752,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>0.8343333333333298</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.902666666666665</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0.9853333333333296</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>0.2906666666666702</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.7506666666666675</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.7519523809523808</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMean_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44784,29 +44784,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>0.8943333333333356</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1.311999999999998</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1.418666666666667</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1.047333333333333</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.5233333333333299</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>0.9166666666666661</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0.5939999999999994</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.9580476190476183</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>1.287666666666667</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1.712000000000003</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>1.02866666666667</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1.913</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>1.336666666666668</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>1.497333333333332</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>1.462555555555556</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>-0.09266666666666623</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>-2.167333333333334</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>-1.263333333333334</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>-0.7296666666666631</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>-1.856666666666666</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>-0.6270000000000042</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>-1.122777777777778</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
